--- a/queries/Result_Groupe_by_date_2.xlsx
+++ b/queries/Result_Groupe_by_date_2.xlsx
@@ -16,10 +16,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -79,12 +76,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -452,7 +446,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,8 +477,10 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>44562</v>
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>01/01/2022</t>
+        </is>
       </c>
       <c r="B2" s="1" t="inlineStr">
         <is>
@@ -492,10 +488,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>150</v>
+        <v>42</v>
       </c>
       <c r="D2" t="n">
-        <v>230</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3">
@@ -506,15 +502,17 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>366</v>
+        <v>105</v>
       </c>
       <c r="D3" t="n">
-        <v>446</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>44563</v>
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>08/01/2022</t>
+        </is>
       </c>
       <c r="B4" s="1" t="inlineStr">
         <is>
@@ -522,10 +520,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>114</v>
+        <v>44</v>
       </c>
       <c r="D4" t="n">
-        <v>154</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5">
@@ -536,15 +534,17 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>300</v>
+        <v>111</v>
       </c>
       <c r="D5" t="n">
-        <v>340</v>
+        <v>131</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>44566</v>
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>10/01/2022</t>
+        </is>
       </c>
       <c r="B6" s="1" t="inlineStr">
         <is>
@@ -552,10 +552,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D6" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7">
@@ -566,15 +566,17 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="D7" t="n">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>44568</v>
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>11/01/2022</t>
+        </is>
       </c>
       <c r="B8" s="1" t="inlineStr">
         <is>
@@ -582,10 +584,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>48</v>
+        <v>126</v>
       </c>
       <c r="D8" t="n">
-        <v>68</v>
+        <v>186</v>
       </c>
     </row>
     <row r="9">
@@ -596,15 +598,17 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>123</v>
+        <v>315</v>
       </c>
       <c r="D9" t="n">
-        <v>143</v>
+        <v>375</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>44571</v>
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>15/01/2022</t>
+        </is>
       </c>
       <c r="B10" s="1" t="inlineStr">
         <is>
@@ -612,10 +616,10 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>68</v>
+        <v>100</v>
       </c>
       <c r="D10" t="n">
-        <v>108</v>
+        <v>160</v>
       </c>
     </row>
     <row r="11">
@@ -626,15 +630,17 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>162</v>
+        <v>237</v>
       </c>
       <c r="D11" t="n">
-        <v>202</v>
+        <v>297</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>44573</v>
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>17/01/2022</t>
+        </is>
       </c>
       <c r="B12" s="1" t="inlineStr">
         <is>
@@ -642,10 +648,10 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>38</v>
+        <v>104</v>
       </c>
       <c r="D12" t="n">
-        <v>58</v>
+        <v>144</v>
       </c>
     </row>
     <row r="13">
@@ -656,15 +662,17 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>93</v>
+        <v>270</v>
       </c>
       <c r="D13" t="n">
-        <v>113</v>
+        <v>310</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>44576</v>
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>18/01/2022</t>
+        </is>
       </c>
       <c r="B14" s="1" t="inlineStr">
         <is>
@@ -672,10 +680,10 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>94</v>
+        <v>62</v>
       </c>
       <c r="D14" t="n">
-        <v>154</v>
+        <v>102</v>
       </c>
     </row>
     <row r="15">
@@ -686,15 +694,17 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>219</v>
+        <v>144</v>
       </c>
       <c r="D15" t="n">
-        <v>279</v>
+        <v>184</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>44578</v>
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>22/01/2022</t>
+        </is>
       </c>
       <c r="B16" s="1" t="inlineStr">
         <is>
@@ -702,10 +712,10 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>110</v>
+        <v>28</v>
       </c>
       <c r="D16" t="n">
-        <v>150</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17">
@@ -716,15 +726,17 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>288</v>
+        <v>63</v>
       </c>
       <c r="D17" t="n">
-        <v>328</v>
+        <v>83</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>44579</v>
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>23/01/2022</t>
+        </is>
       </c>
       <c r="B18" s="1" t="inlineStr">
         <is>
@@ -732,10 +744,10 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>106</v>
+        <v>40</v>
       </c>
       <c r="D18" t="n">
-        <v>146</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19">
@@ -746,15 +758,17 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>276</v>
+        <v>99</v>
       </c>
       <c r="D19" t="n">
-        <v>316</v>
+        <v>119</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>44586</v>
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>24/01/2022</t>
+        </is>
       </c>
       <c r="B20" s="1" t="inlineStr">
         <is>
@@ -762,10 +776,10 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="D20" t="n">
-        <v>54</v>
+        <v>70</v>
       </c>
     </row>
     <row r="21">
@@ -776,15 +790,17 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>81</v>
+        <v>129</v>
       </c>
       <c r="D21" t="n">
-        <v>101</v>
+        <v>149</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>44591</v>
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>25/01/2022</t>
+        </is>
       </c>
       <c r="B22" s="1" t="inlineStr">
         <is>
@@ -792,10 +808,10 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="D22" t="n">
-        <v>52</v>
+        <v>80</v>
       </c>
     </row>
     <row r="23">
@@ -806,18 +822,117 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>75</v>
+        <v>159</v>
       </c>
       <c r="D23" t="n">
-        <v>95</v>
+        <v>179</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>26/01/2022</t>
+        </is>
+      </c>
+      <c r="B24" s="1" t="inlineStr">
+        <is>
+          <t>Qliq</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>34</v>
+      </c>
+      <c r="D24" t="n">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n"/>
+      <c r="B25" s="1" t="inlineStr">
+        <is>
+          <t>Qoil</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>81</v>
+      </c>
+      <c r="D25" t="n">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>27/01/2022</t>
+        </is>
+      </c>
+      <c r="B26" s="1" t="inlineStr">
+        <is>
+          <t>Qliq</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>54</v>
+      </c>
+      <c r="D26" t="n">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="1" t="inlineStr">
+        <is>
+          <t>Qoil</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>141</v>
+      </c>
+      <c r="D27" t="n">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>30/01/2022</t>
+        </is>
+      </c>
+      <c r="B28" s="1" t="inlineStr">
+        <is>
+          <t>Qliq</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>52</v>
+      </c>
+      <c r="D28" t="n">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="1" t="inlineStr">
+        <is>
+          <t>Qoil</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>135</v>
+      </c>
+      <c r="D29" t="n">
+        <v>155</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="14">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A24:A25"/>
     <mergeCell ref="A22:A23"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="A26:A27"/>
     <mergeCell ref="A20:A21"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A16:A17"/>
